--- a/reference/感染症ValueSet作成用.xlsx
+++ b/reference/感染症ValueSet作成用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DEED674-A149-374B-BEF1-A1FA9A22E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBD3DB1-10E6-7A43-B094-E5FDFCA5CFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="500" windowWidth="30960" windowHeight="17500"/>
+    <workbookView xWindow="32540" yWindow="300" windowWidth="30960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>* #HCV-check  "C蝙玖轤弱え繧､繝ｫ繧ｹ讀懈渊"   // HCV 讀懈渊</t>
   </si>
@@ -243,11 +243,170 @@
     <t>* #HIV-1P2-AB-P24-COIV</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>C型肝炎ウイルス検診の判定</t>
+  </si>
+  <si>
+    <t>HBs抗原(S/CO)</t>
+  </si>
+  <si>
+    <t>HBs抗原(コントロール比)</t>
+  </si>
+  <si>
+    <t>HBs抗原(希釈倍率)</t>
+  </si>
+  <si>
+    <t>HBs抗原(吸光度)</t>
+  </si>
+  <si>
+    <t>HBs抗原(定量)</t>
+  </si>
+  <si>
+    <t>HBs抗原(判定)</t>
+  </si>
+  <si>
+    <t>HBs抗原(陽性コントロール比)</t>
+  </si>
+  <si>
+    <t>HBs抗体(コントロール比)</t>
+  </si>
+  <si>
+    <t>HBs抗体(陰性コントロール比)</t>
+  </si>
+  <si>
+    <t>HBs抗体(希釈倍率)</t>
+  </si>
+  <si>
+    <t>HBs抗体(定量)</t>
+  </si>
+  <si>
+    <t>HBs抗体(判定)</t>
+  </si>
+  <si>
+    <t>HCV核酸増幅検査(定量)</t>
+  </si>
+  <si>
+    <t>HCV核酸増幅検査(判定)</t>
+  </si>
+  <si>
+    <t>HCV抗原検査(定量)</t>
+  </si>
+  <si>
+    <t>HCV抗原検査(判定)</t>
+  </si>
+  <si>
+    <t>HCV抗体(コントロール比)</t>
+  </si>
+  <si>
+    <t>HCV抗体(希釈倍率)</t>
+  </si>
+  <si>
+    <t>HCV抗体(判定)</t>
+  </si>
+  <si>
+    <t>HCV抗体(陽性コントロール比)</t>
+  </si>
+  <si>
+    <t>HIV-1(ウイルスRNA定量)</t>
+  </si>
+  <si>
+    <t>HIV-1(ウイルスRNA定量判定)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(コントロール値)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(コントロール比)</t>
+  </si>
+  <si>
+    <t>IV-1+2抗体・p24抗原(陰性コントロール比)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(吸光度)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(定性、HIV p24抗原)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(定性、HIV-1+2抗体)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(定量、HIV p24抗原)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(定量、HIV-1+2抗体)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(判定)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体・p24抗原(陽性コントロール比)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体(コントロール比)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体(希釈倍率)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体(判定)</t>
+  </si>
+  <si>
+    <t>HIV-1+2抗体(陽性コントロール比)</t>
+  </si>
+  <si>
+    <t>HIV-1抗体(希釈倍率)</t>
+  </si>
+  <si>
+    <t>HIV-1抗体(判定)</t>
+  </si>
+  <si>
+    <t>HIV-2抗体(希釈倍率)</t>
+  </si>
+  <si>
+    <t>HIV-2抗体(判定)</t>
+  </si>
+  <si>
+    <t>梅毒STS(定性)</t>
+  </si>
+  <si>
+    <t>梅毒STS(定量)</t>
+  </si>
+  <si>
+    <t>梅毒STS(判定)</t>
+  </si>
+  <si>
+    <t>梅毒STS(半定量)</t>
+  </si>
+  <si>
+    <t>梅毒TP抗体(定性)</t>
+  </si>
+  <si>
+    <t>梅毒TP抗体(定量、コントロール比)</t>
+  </si>
+  <si>
+    <t>梅毒TP抗体(定量、陰性コントロール比)</t>
+  </si>
+  <si>
+    <t>梅毒TP抗体(定量、判定)</t>
+  </si>
+  <si>
+    <t>梅毒TP抗体(定量、陽性コントロール比)</t>
+  </si>
+  <si>
+    <t>梅毒TP抗体(定量)</t>
+  </si>
+  <si>
+    <t>梅毒TP抗体(半定量)</t>
+  </si>
+  <si>
+    <t>梅毒反応</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="12"/>
@@ -1243,11 +1402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1256,15 +1415,19 @@
     <col min="2" max="2" width="4.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="0.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1275,7 +1438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28" customHeight="1">
+    <row r="2" spans="1:11" ht="28" customHeight="1">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1293,24 +1456,27 @@
         <f>LOWER(SUBSTITUTE(MID($D2,4,100),"-",""))</f>
         <v>hcvcheck</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="str">
         <f>"JP_CLINS_ValueSet_InfectionLabo_"&amp;E2&amp;"_VS"</f>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVCHECK_VS</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="I2" s="5" t="str">
         <f>"jp-clins-valueset-infectionlabo-"&amp;F2&amp;"-vs"</f>
         <v>jp-clins-valueset-infectionlabo-hcvcheck-vs</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>"$JP_CLINS_ValueSet_InfectionLabo_"&amp;E2&amp;"_VS"</f>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVCHECK_VS</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="K2" s="5" t="str">
         <f>"* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #"&amp;MID(D2,4,100)</f>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-CHECK</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>23</v>
       </c>
@@ -1332,24 +1498,27 @@
         <f t="shared" ref="F3:F54" si="1">LOWER(SUBSTITUTE(MID($D3,4,100),"-",""))</f>
         <v>hbsagsco</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G54" si="2">"JP_CLINS_ValueSet_InfectionLabo_"&amp;E3&amp;"_VS"</f>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H54" si="2">"JP_CLINS_ValueSet_InfectionLabo_"&amp;E3&amp;"_VS"</f>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBSAGSCO_VS</v>
       </c>
-      <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H54" si="3">"jp-clins-valueset-infectionlabo-"&amp;F3&amp;"-vs"</f>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I54" si="3">"jp-clins-valueset-infectionlabo-"&amp;F3&amp;"-vs"</f>
         <v>jp-clins-valueset-infectionlabo-hbsagsco-vs</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I54" si="4">"$JP_CLINS_ValueSet_InfectionLabo_"&amp;E3&amp;"_VS"</f>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J54" si="4">"$JP_CLINS_ValueSet_InfectionLabo_"&amp;E3&amp;"_VS"</f>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBSAGSCO_VS</v>
       </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" ref="J3:J54" si="5">"* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #"&amp;MID(D3,4,100)</f>
+      <c r="K3" s="5" t="str">
+        <f t="shared" ref="K3:K54" si="5">"* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #"&amp;MID(D3,4,100)</f>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBS-AG-SCO</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>29</v>
       </c>
@@ -1371,24 +1540,27 @@
         <f t="shared" si="1"/>
         <v>hbsagcoi</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsAGCOI_VS</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="I4" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsagcoi-vs</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsAGCOI_VS</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="K4" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AG-COI</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>36</v>
       </c>
@@ -1410,24 +1582,27 @@
         <f t="shared" si="1"/>
         <v>hbsagdil</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsAGDIL_VS</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="I5" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsagdil-vs</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsAGDIL_VS</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="K5" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AG-DIL</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>43</v>
       </c>
@@ -1449,24 +1624,27 @@
         <f t="shared" si="1"/>
         <v>hbsagod</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HbsAGOD_VS</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="I6" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsagod-vs</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HbsAGOD_VS</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="K6" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #Hbs-AG-OD</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>49</v>
       </c>
@@ -1488,24 +1666,27 @@
         <f t="shared" si="1"/>
         <v>hbsagquant</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsAGQUANT_VS</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsagquant-vs</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsAGQUANT_VS</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="K7" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AG-QUANT</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>59</v>
       </c>
@@ -1527,24 +1708,27 @@
         <f t="shared" si="1"/>
         <v>hbsagresult</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsAGRESULT_VS</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsagresult-vs</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsAGRESULT_VS</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="K8" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AG-RESULT</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>76</v>
       </c>
@@ -1566,24 +1750,27 @@
         <f t="shared" si="1"/>
         <v>hbsagposcoi</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsAGPOSCOI_VS</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsagposcoi-vs</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsAGPOSCOI_VS</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="K9" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AG-POS-COI</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>83</v>
       </c>
@@ -1605,24 +1792,27 @@
         <f t="shared" si="1"/>
         <v>hbsabcoi</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsABCOI_VS</v>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsabcoi-vs</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsABCOI_VS</v>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="K10" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AB-COI</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>89</v>
       </c>
@@ -1644,24 +1834,27 @@
         <f t="shared" si="1"/>
         <v>hbsabnegcoi</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsABNEGCOI_VS</v>
       </c>
-      <c r="H11" s="5" t="str">
+      <c r="I11" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsabnegcoi-vs</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsABNEGCOI_VS</v>
       </c>
-      <c r="J11" s="5" t="str">
+      <c r="K11" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AB-NEG-COI</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1683,24 +1876,27 @@
         <f t="shared" si="1"/>
         <v>hbsabdil</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsABDIL_VS</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsabdil-vs</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsABDIL_VS</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="K12" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AB-DIL</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>101</v>
       </c>
@@ -1722,24 +1918,27 @@
         <f t="shared" si="1"/>
         <v>hbsabquant</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsABQUANT_VS</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="I13" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsabquant-vs</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsABQUANT_VS</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="K13" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AB-QUANT</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>112</v>
       </c>
@@ -1761,24 +1960,27 @@
         <f t="shared" si="1"/>
         <v>hbsabresult</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HBsABRESULT_VS</v>
       </c>
-      <c r="H14" s="5" t="str">
+      <c r="I14" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hbsabresult-vs</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HBsABRESULT_VS</v>
       </c>
-      <c r="J14" s="5" t="str">
+      <c r="K14" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HBs-AB-RESULT</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>125</v>
       </c>
@@ -1800,24 +2002,27 @@
         <f t="shared" si="1"/>
         <v>hcvquant</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVQUANT_VS</v>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="I15" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvquant-vs</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVQUANT_VS</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="K15" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-QUANT</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>131</v>
       </c>
@@ -1839,24 +2044,27 @@
         <f t="shared" si="1"/>
         <v>hcvresult</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVRESULT_VS</v>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="I16" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvresult-vs</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVRESULT_VS</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="K16" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-RESULT</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>135</v>
       </c>
@@ -1878,24 +2086,27 @@
         <f t="shared" si="1"/>
         <v>hcvagquant</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVAGQUANT_VS</v>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="I17" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvagquant-vs</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVAGQUANT_VS</v>
       </c>
-      <c r="J17" s="5" t="str">
+      <c r="K17" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-AG-QUANT</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>142</v>
       </c>
@@ -1917,24 +2128,27 @@
         <f t="shared" si="1"/>
         <v>hcvagresult</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVAGRESULT_VS</v>
       </c>
-      <c r="H18" s="5" t="str">
+      <c r="I18" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvagresult-vs</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVAGRESULT_VS</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="K18" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-AG-RESULT</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>149</v>
       </c>
@@ -1956,24 +2170,27 @@
         <f t="shared" si="1"/>
         <v>hcvabcoi</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVABCOI_VS</v>
       </c>
-      <c r="H19" s="5" t="str">
+      <c r="I19" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvabcoi-vs</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVABCOI_VS</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="K19" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-AB-COI</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>163</v>
       </c>
@@ -1995,24 +2212,27 @@
         <f t="shared" si="1"/>
         <v>hcvabdil</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVABDIL_VS</v>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="I20" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvabdil-vs</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVABDIL_VS</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="K20" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-AB-DIL</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>169</v>
       </c>
@@ -2034,24 +2254,27 @@
         <f t="shared" si="1"/>
         <v>hcvabresult</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVABRESULT_VS</v>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="I21" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvabresult-vs</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVABRESULT_VS</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="K21" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-AB-RESULT</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>196</v>
       </c>
@@ -2073,24 +2296,27 @@
         <f t="shared" si="1"/>
         <v>hcvabposcoi</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HCVABPOSCOI_VS</v>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="I22" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hcvabposcoi-vs</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HCVABPOSCOI_VS</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="K22" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HCV-AB-POS-COI</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>212</v>
       </c>
@@ -2112,24 +2338,27 @@
         <f t="shared" si="1"/>
         <v>hiv1quant</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1QUANT_VS</v>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="I23" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1quant-vs</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1QUANT_VS</v>
       </c>
-      <c r="J23" s="5" t="str">
+      <c r="K23" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1-QUANT</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>218</v>
       </c>
@@ -2151,24 +2380,35 @@
         <f t="shared" si="1"/>
         <v>hiv1result</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1RESULT_VS</v>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="I24" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1result-vs</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1RESULT_VS</v>
       </c>
-      <c r="J24" s="5" t="str">
+      <c r="K24" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1-RESULT</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24" t="str">
+        <f>"* code.coding[coreInfection/"&amp;F24&amp;"].system = $JP_CLINS_CodeSystem_InfectionLabo_CS (exactly)"</f>
+        <v>* code.coding[coreInfection/hiv1result].system = $JP_CLINS_CodeSystem_InfectionLabo_CS (exactly)</v>
+      </c>
+      <c r="O24" t="str">
+        <f>"* code.coding[coreInfection/"&amp;F24&amp;"].display = """</f>
+        <v>* code.coding[coreInfection/hiv1result].display = "</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>224</v>
       </c>
@@ -2190,24 +2430,27 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abp24coiv</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24COIV_VS</v>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="I25" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abp24coiv-vs</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24COIV_VS</v>
       </c>
-      <c r="J25" s="5" t="str">
+      <c r="K25" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-P24-COIV</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1">
+    <row r="26" spans="1:15" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>230</v>
       </c>
@@ -2229,25 +2472,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abp24coi</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24COI_VS</v>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="I26" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abp24coi-vs</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24COI_VS</v>
       </c>
-      <c r="J26" s="5" t="str">
+      <c r="K26" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-P24-COI</v>
       </c>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1">
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>237</v>
       </c>
@@ -2269,25 +2515,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abp24negcoi</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24NEGCOI_VS</v>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="I27" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abp24negcoi-vs</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24NEGCOI_VS</v>
       </c>
-      <c r="J27" s="5" t="str">
+      <c r="K27" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-P24-NEG-COI</v>
       </c>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>243</v>
       </c>
@@ -2309,24 +2558,27 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abod</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABOD_VS</v>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="I28" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abod-vs</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABOD_VS</v>
       </c>
-      <c r="J28" s="5" t="str">
+      <c r="K28" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-OD</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>249</v>
       </c>
@@ -2348,24 +2600,27 @@
         <f t="shared" si="1"/>
         <v>hiv1p2p24abresult</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2P24ABRESULT_VS</v>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="I29" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2p24abresult-vs</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2P24ABRESULT_VS</v>
       </c>
-      <c r="J29" s="5" t="str">
+      <c r="K29" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-P24-AB-RESULT</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1">
+    <row r="30" spans="1:15" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>257</v>
       </c>
@@ -2387,25 +2642,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abp24qlresult</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24QLRESULT_VS</v>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="I30" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abp24qlresult-vs</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24QLRESULT_VS</v>
       </c>
-      <c r="J30" s="5" t="str">
+      <c r="K30" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-P24-QLRESULT</v>
       </c>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1">
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1">
       <c r="A31">
         <v>265</v>
       </c>
@@ -2427,25 +2685,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2p24abquant</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2P24ABQUANT_VS</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="I31" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2p24abquant-vs</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2P24ABQUANT_VS</v>
       </c>
-      <c r="J31" s="5" t="str">
+      <c r="K31" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-P24-AB-QUANT</v>
       </c>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1">
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1">
       <c r="A32">
         <v>271</v>
       </c>
@@ -2467,25 +2728,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abquant</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABQUANT_VS</v>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="I32" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abquant-vs</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABQUANT_VS</v>
       </c>
-      <c r="J32" s="5" t="str">
+      <c r="K32" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-QUANT</v>
       </c>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>277</v>
       </c>
@@ -2507,24 +2771,27 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abp24result</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24RESULT_VS</v>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="I33" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abp24result-vs</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24RESULT_VS</v>
       </c>
-      <c r="J33" s="5" t="str">
+      <c r="K33" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-P24-RESULT</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>287</v>
       </c>
@@ -2546,24 +2813,27 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abp24poscoi</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24POSCOI_VS</v>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="I34" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abp24poscoi-vs</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABP24POSCOI_VS</v>
       </c>
-      <c r="J34" s="5" t="str">
+      <c r="K34" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-P24-POS-COI</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1">
+    <row r="35" spans="1:12" s="1" customFormat="1">
       <c r="A35" s="1">
         <v>295</v>
       </c>
@@ -2585,25 +2855,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abcoi</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABCOI_VS</v>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="I35" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abcoi-vs</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABCOI_VS</v>
       </c>
-      <c r="J35" s="5" t="str">
+      <c r="K35" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-COI</v>
       </c>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1">
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1">
       <c r="A36">
         <v>303</v>
       </c>
@@ -2625,25 +2898,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abdil</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABDIL_VS</v>
       </c>
-      <c r="H36" s="5" t="str">
+      <c r="I36" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abdil-vs</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABDIL_VS</v>
       </c>
-      <c r="J36" s="5" t="str">
+      <c r="K36" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-DIL</v>
       </c>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1">
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1">
       <c r="A37" s="1">
         <v>309</v>
       </c>
@@ -2665,25 +2941,28 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abresult</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABRESULT_VS</v>
       </c>
-      <c r="H37" s="5" t="str">
+      <c r="I37" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abresult-vs</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABRESULT_VS</v>
       </c>
-      <c r="J37" s="5" t="str">
+      <c r="K37" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-RESULT</v>
       </c>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>319</v>
       </c>
@@ -2705,24 +2984,27 @@
         <f t="shared" si="1"/>
         <v>hiv1p2abposcoi</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABPOSCOI_VS</v>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="I38" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1p2abposcoi-vs</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1P2ABPOSCOI_VS</v>
       </c>
-      <c r="J38" s="5" t="str">
+      <c r="K38" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1P2-AB-POS-COI</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>325</v>
       </c>
@@ -2744,24 +3026,27 @@
         <f t="shared" si="1"/>
         <v>hiv1abdil</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1ABDIL_VS</v>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="I39" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1abdil-vs</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1ABDIL_VS</v>
       </c>
-      <c r="J39" s="5" t="str">
+      <c r="K39" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1-AB-DIL</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>331</v>
       </c>
@@ -2783,24 +3068,27 @@
         <f t="shared" si="1"/>
         <v>hiv1abresult</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV1ABRESULT_VS</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="I40" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv1abresult-vs</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV1ABRESULT_VS</v>
       </c>
-      <c r="J40" s="5" t="str">
+      <c r="K40" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-1-AB-RESULT</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>337</v>
       </c>
@@ -2822,24 +3110,27 @@
         <f t="shared" si="1"/>
         <v>hiv2abdil</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV2ABDIL_VS</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="I41" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv2abdil-vs</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV2ABDIL_VS</v>
       </c>
-      <c r="J41" s="5" t="str">
+      <c r="K41" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-2-AB-DIL</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>343</v>
       </c>
@@ -2861,24 +3152,27 @@
         <f t="shared" si="1"/>
         <v>hiv2abresult</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_HIV2ABRESULT_VS</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="I42" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-hiv2abresult-vs</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_HIV2ABRESULT_VS</v>
       </c>
-      <c r="J42" s="5" t="str">
+      <c r="K42" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #HIV-2-AB-RESULT</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1">
+    <row r="43" spans="1:12" s="1" customFormat="1">
       <c r="A43" s="4">
         <v>347</v>
       </c>
@@ -2900,25 +3194,28 @@
         <f t="shared" si="1"/>
         <v>stsqlresult</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_STSQLRESULT_VS</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="I43" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-stsqlresult-vs</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_STSQLRESULT_VS</v>
       </c>
-      <c r="J43" s="5" t="str">
+      <c r="K43" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #STS-QLRESULT</v>
       </c>
-      <c r="K43"/>
-    </row>
-    <row r="44" spans="1:11" s="1" customFormat="1">
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>353</v>
       </c>
@@ -2940,25 +3237,28 @@
         <f t="shared" si="1"/>
         <v>stsquant</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_STSQUANT_VS</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="I44" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-stsquant-vs</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_STSQUANT_VS</v>
       </c>
-      <c r="J44" s="5" t="str">
+      <c r="K44" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #STS-QUANT</v>
       </c>
-      <c r="K44"/>
-    </row>
-    <row r="45" spans="1:11" s="4" customFormat="1">
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" s="4" customFormat="1">
       <c r="A45" s="4">
         <v>360</v>
       </c>
@@ -2980,25 +3280,28 @@
         <f t="shared" si="1"/>
         <v>stsresult</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_STSRESULT_VS</v>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="I45" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-stsresult-vs</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_STSRESULT_VS</v>
       </c>
-      <c r="J45" s="5" t="str">
+      <c r="K45" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #STS-RESULT</v>
       </c>
-      <c r="K45"/>
-    </row>
-    <row r="46" spans="1:11" s="4" customFormat="1">
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" s="4" customFormat="1">
       <c r="A46" s="1">
         <v>367</v>
       </c>
@@ -3020,25 +3323,28 @@
         <f t="shared" si="1"/>
         <v>stshquant</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_STSHQUANT_VS</v>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="I46" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-stshquant-vs</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_STSHQUANT_VS</v>
       </c>
-      <c r="J46" s="5" t="str">
+      <c r="K46" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #STS-HQUANT</v>
       </c>
-      <c r="K46"/>
-    </row>
-    <row r="47" spans="1:11" s="4" customFormat="1">
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" s="4" customFormat="1">
       <c r="A47">
         <v>373</v>
       </c>
@@ -3060,25 +3366,28 @@
         <f t="shared" si="1"/>
         <v>tpresult</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_TPRESULT_VS</v>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="I47" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-tpresult-vs</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_TPRESULT_VS</v>
       </c>
-      <c r="J47" s="5" t="str">
+      <c r="K47" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #TP-RESULT</v>
       </c>
-      <c r="K47"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>384</v>
       </c>
@@ -3100,24 +3409,27 @@
         <f t="shared" si="1"/>
         <v>tpquantcoi</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_TPQUANTCOI_VS</v>
       </c>
-      <c r="H48" s="5" t="str">
+      <c r="I48" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-tpquantcoi-vs</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_TPQUANTCOI_VS</v>
       </c>
-      <c r="J48" s="5" t="str">
+      <c r="K48" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #TP-QUANT-COI</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>390</v>
       </c>
@@ -3139,24 +3451,27 @@
         <f t="shared" si="1"/>
         <v>tpnegcoi</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_TPNEGCOI_VS</v>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="I49" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-tpnegcoi-vs</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_TPNEGCOI_VS</v>
       </c>
-      <c r="J49" s="5" t="str">
+      <c r="K49" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #TP-NEG-COI</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="4" customFormat="1">
+    <row r="50" spans="1:12" s="4" customFormat="1">
       <c r="A50" s="4">
         <v>400</v>
       </c>
@@ -3178,25 +3493,28 @@
         <f t="shared" si="1"/>
         <v>tpquantresult</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_TPQUANTRESULT_VS</v>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="I50" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-tpquantresult-vs</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_TPQUANTRESULT_VS</v>
       </c>
-      <c r="J50" s="5" t="str">
+      <c r="K50" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #TP-QUANT-RESULT</v>
       </c>
-      <c r="K50"/>
-    </row>
-    <row r="51" spans="1:11" s="4" customFormat="1">
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" s="4" customFormat="1">
       <c r="A51">
         <v>412</v>
       </c>
@@ -3218,25 +3536,28 @@
         <f t="shared" si="1"/>
         <v>tpposcoi</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_TPPOSCOI_VS</v>
       </c>
-      <c r="H51" s="5" t="str">
+      <c r="I51" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-tpposcoi-vs</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_TPPOSCOI_VS</v>
       </c>
-      <c r="J51" s="5" t="str">
+      <c r="K51" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #TP-POS-COI</v>
       </c>
-      <c r="K51"/>
-    </row>
-    <row r="52" spans="1:11" s="4" customFormat="1">
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" s="4" customFormat="1">
       <c r="A52" s="4">
         <v>419</v>
       </c>
@@ -3258,25 +3579,28 @@
         <f t="shared" si="1"/>
         <v>tpquant</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_TPQUANT_VS</v>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="I52" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-tpquant-vs</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_TPQUANT_VS</v>
       </c>
-      <c r="J52" s="5" t="str">
+      <c r="K52" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #TP-QUANT</v>
       </c>
-      <c r="K52"/>
-    </row>
-    <row r="53" spans="1:11" s="4" customFormat="1">
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" s="4" customFormat="1">
       <c r="A53" s="4">
         <v>426</v>
       </c>
@@ -3298,25 +3622,28 @@
         <f t="shared" si="1"/>
         <v>tphquant</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_TPHQUANT_VS</v>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="I53" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-tphquant-vs</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_TPHQUANT_VS</v>
       </c>
-      <c r="J53" s="5" t="str">
+      <c r="K53" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #TP-HQUANT</v>
       </c>
-      <c r="K53"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>433</v>
       </c>
@@ -3338,19 +3665,22 @@
         <f t="shared" si="1"/>
         <v>sts</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" t="s">
+        <v>111</v>
+      </c>
+      <c r="H54" t="str">
         <f t="shared" si="2"/>
         <v>JP_CLINS_ValueSet_InfectionLabo_STS_VS</v>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="I54" s="5" t="str">
         <f t="shared" si="3"/>
         <v>jp-clins-valueset-infectionlabo-sts-vs</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="4"/>
         <v>$JP_CLINS_ValueSet_InfectionLabo_STS_VS</v>
       </c>
-      <c r="J54" s="5" t="str">
+      <c r="K54" s="5" t="str">
         <f t="shared" si="5"/>
         <v>* include codes from system $JP_CLINS_CodeSystem_InfectionLabo_CS where concept descendant-of #STS</v>
       </c>
